--- a/Детали.xlsx
+++ b/Детали.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuma\Desktop\федотов_климакин варинат 5\Вариант5\Сессия 1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuma\Desktop\DeviceShop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Details" sheetId="1" r:id="rId1"/>
     <sheet name="Article" sheetId="6" r:id="rId2"/>
     <sheet name="Unit" sheetId="5" r:id="rId3"/>
-    <sheet name="Type" sheetId="3" r:id="rId4"/>
+    <sheet name="TypeDetails" sheetId="3" r:id="rId4"/>
     <sheet name="Gost" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>шт</t>
   </si>
@@ -147,12 +147,6 @@
     <t>DetailsId</t>
   </si>
   <si>
-    <t>TypeId</t>
-  </si>
-  <si>
-    <t>TypeName</t>
-  </si>
-  <si>
     <t>GostId</t>
   </si>
   <si>
@@ -190,13 +184,49 @@
   </si>
   <si>
     <t>IdArticle</t>
+  </si>
+  <si>
+    <t>В3</t>
+  </si>
+  <si>
+    <t>Д29</t>
+  </si>
+  <si>
+    <t>Д35</t>
+  </si>
+  <si>
+    <t>З187</t>
+  </si>
+  <si>
+    <t>З195</t>
+  </si>
+  <si>
+    <t>З197</t>
+  </si>
+  <si>
+    <t>з245</t>
+  </si>
+  <si>
+    <t>И14</t>
+  </si>
+  <si>
+    <t>И50</t>
+  </si>
+  <si>
+    <t>М12</t>
+  </si>
+  <si>
+    <t>TypeDetailsName</t>
+  </si>
+  <si>
+    <t>TypeDetailsId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +237,23 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF5E3C17"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -233,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -252,6 +299,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -571,7 +624,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,25 +647,25 @@
         <v>37</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -906,10 +959,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,10 +972,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1013,9 +1066,89 @@
         <v>22</v>
       </c>
     </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="B2:B12">
-    <sortCondition ref="B2"/>
+  <sortState ref="B2:B22">
+    <sortCondition ref="B2:B22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1026,17 +1159,17 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1076,20 +1209,21 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1137,7 +1271,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,10 +1281,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/Детали.xlsx
+++ b/Детали.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>шт</t>
   </si>
@@ -172,12 +172,6 @@
   </si>
   <si>
     <t>ArticleName</t>
-  </si>
-  <si>
-    <t>IdUnit</t>
-  </si>
-  <si>
-    <t>IdType</t>
   </si>
   <si>
     <t>IdGost</t>
@@ -624,7 +618,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +641,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>42</v>
@@ -656,16 +650,16 @@
         <v>43</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>44</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -961,9 +955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1071,7 +1063,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1079,7 +1071,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1087,7 +1079,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1095,7 +1087,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1103,7 +1095,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1111,7 +1103,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1119,7 +1111,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1127,7 +1119,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1135,7 +1127,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1143,7 +1135,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1158,9 +1150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1220,10 +1210,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1271,7 +1261,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
